--- a/excel-spill-operator-demo.xlsx
+++ b/excel-spill-operator-demo.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27715"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE279F78-8FE1-435A-8434-745CE6D5E965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B11BD2-4D6C-449D-B74F-CB01F2FDB3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{6EEB8EE1-AB22-42A8-80A4-2428A45C1C44}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="count-unique" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>trans_id</t>
   </si>
@@ -129,10 +131,13 @@
     <t>Bernard, Andy</t>
   </si>
   <si>
-    <t>Mom</t>
-  </si>
-  <si>
-    <t>Your</t>
+    <t>Count unique:</t>
+  </si>
+  <si>
+    <t>Choose sales rep:</t>
+  </si>
+  <si>
+    <t>Hudson, Stanley</t>
   </si>
 </sst>
 </file>
@@ -192,8 +197,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19CBB38E-5081-4B95-9918-128061FFA13A}" name="dm_sales" displayName="dm_sales" ref="A1:F16" totalsRowShown="0">
-  <autoFilter ref="A1:F16" xr:uid="{19CBB38E-5081-4B95-9918-128061FFA13A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19CBB38E-5081-4B95-9918-128061FFA13A}" name="dm_sales" displayName="dm_sales" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{19CBB38E-5081-4B95-9918-128061FFA13A}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D5C80B3C-C270-4064-A9DE-99FAC4F6AF68}" name="trans_id"/>
     <tableColumn id="2" xr3:uid="{2D3CE10B-C4C5-4CA1-AB09-B05A247DE795}" name="emp_first"/>
@@ -523,11 +528,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6634371F-676D-414F-A097-DB19594FC229}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
   <cols>
@@ -537,6 +540,9 @@
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.70703125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.9140625" customWidth="1"/>
     <col min="10" max="10" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -580,14 +586,14 @@
         <v>99.9</v>
       </c>
       <c r="H2" t="str" cm="1">
-        <f t="array" ref="H2:I7">_xlfn.UNIQUE(dm_sales[[emp_first]:[emp_last]])</f>
+        <f t="array" ref="H2:I6">_xlfn.UNIQUE(dm_sales[[emp_first]:[emp_last]])</f>
         <v>Jim</v>
       </c>
       <c r="I2" t="str">
         <v>Halpert</v>
       </c>
       <c r="J2" t="str" cm="1">
-        <f t="array" ref="J2:J7">INDEX(_xlfn.ANCHORARRAY(H2), , 2) &amp; ", " &amp; INDEX(_xlfn.ANCHORARRAY(H2), , 1)</f>
+        <f t="array" ref="J2:J6">INDEX(_xlfn.ANCHORARRAY(Sheet1!A1), , 2) &amp; ", " &amp; INDEX(_xlfn.ANCHORARRAY(Sheet1!A1), , 1)</f>
         <v>Halpert, Jim</v>
       </c>
     </row>
@@ -726,15 +732,6 @@
       <c r="F7" s="1">
         <v>79.92</v>
       </c>
-      <c r="H7" t="str">
-        <v>Mom</v>
-      </c>
-      <c r="I7" t="str">
-        <v>Your</v>
-      </c>
-      <c r="J7" t="str">
-        <v>Your, Mom</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A8">
@@ -775,6 +772,12 @@
       <c r="F9" s="1">
         <v>99.95</v>
       </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A10">
@@ -815,9 +818,6 @@
       <c r="F11" s="1">
         <v>17.43</v>
       </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A12">
@@ -838,9 +838,6 @@
       <c r="F12" s="1">
         <v>39.96</v>
       </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A13">
@@ -902,17 +899,9 @@
         <v>59.97</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12" xr:uid="{0F03B969-2257-4DA7-A3F0-811A1ED29DD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9" xr:uid="{C30D3A68-E1B6-4C75-A4A7-968A3FE79DBD}">
       <formula1>_xlfn.ANCHORARRAY(J2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -921,4 +910,149 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D97E49-4E75-4DA2-A395-7038DA3A200C}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="11.95703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1">
+        <f>COUNTA(_xlfn.ANCHORARRAY(A3))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A3" t="str" cm="1">
+        <f t="array" ref="A3:A8">_xlfn.UNIQUE(dm_sales[product])</f>
+        <v>Copy Paper</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A4" t="str">
+        <v>Sticky Notes</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A5" t="str">
+        <v>Printer Ink</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A6" t="str">
+        <v>Envelopes</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A7" t="str">
+        <v>Legal Pads</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A8" t="str">
+        <v>File folders</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B26F59-F56D-4B72-8645-45A37AC6DFAF}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1:B5">_xlfn.UNIQUE(dm_sales[[emp_first]:[emp_last]])</f>
+        <v>Jim</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="C1" t="str" cm="1">
+        <f t="array" ref="C1:C5">INDEX(_xlfn.ANCHORARRAY(Sheet1!A1), , 2) &amp; ", " &amp; INDEX(_xlfn.ANCHORARRAY(Sheet1!A1), , 1)</f>
+        <v>Halpert, Jim</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A2" t="str">
+        <v>Pam</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Halpert, Pam</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A3" t="str">
+        <v>Andy</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Bernard, Andy</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A4" t="str">
+        <v>Stanley</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Hudson</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Hudson, Stanley</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A5" t="str">
+        <v>Phyllis</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Vance</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Vance, Phyllis</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11" xr:uid="{0F03B969-2257-4DA7-A3F0-811A1ED29DD6}">
+      <formula1>_xlfn.ANCHORARRAY(C1)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>